--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0015-003 - Sales melakukan Simulasi Performance Calculator.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0015-003 - Sales melakukan Simulasi Performance Calculator.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB90DD-8B9E-4542-8D14-209B8866C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399CF89-A4AB-4FC3-91DC-A0AC3B7CCBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0225" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0015" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,9 +92,6 @@
     <t>Performance Calculator</t>
   </si>
   <si>
-    <t>DGS-240</t>
-  </si>
-  <si>
     <t>1. Login digisales mobile dengan sales
 2. Buka menu my performance
 3. Pilih performance calculator
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>TEXT3</t>
+  </si>
+  <si>
+    <t>SCD0015-003</t>
   </si>
 </sst>
 </file>
@@ -508,14 +508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="10">
         <v>49998</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="L2" s="8" t="str">
         <f ca="1">IF(LEFT(TEXT(TODAY(),"mmmm"),3)="aug","agu",IF(LEFT(TEXT(TODAY(),"mmmm"),3)="oct","okt",IF(LEFT(TEXT(TODAY(),"mmmm"),3)="dec","des",LEFT(TEXT(TODAY(),"mmmm"),3))))</f>
-        <v>agu</v>
+        <v>Nov</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>16</v>
